--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Encrypt (s)</t>
+          <t>Enc (s)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Decrypt (s)</t>
+          <t>Dec (s)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Encrypt (B)</t>
+          <t>Enc (B)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Decrypt (B)</t>
+          <t>Dec (B)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -544,34 +544,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000139678</v>
+        <v>8.2457e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003909326</v>
+        <v>0.002719796</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005127144</v>
+        <v>0.003503323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007948649</v>
+        <v>0.005656672</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005081177</v>
+        <v>0.003773141</v>
       </c>
       <c r="K2" t="n">
-        <v>17061478.4</v>
+        <v>17170432</v>
       </c>
       <c r="L2" t="n">
-        <v>17061478.4</v>
+        <v>17170432</v>
       </c>
       <c r="M2" t="n">
-        <v>17061478.4</v>
+        <v>17214259.2</v>
       </c>
       <c r="N2" t="n">
-        <v>17061478.4</v>
+        <v>17220403.2</v>
       </c>
       <c r="O2" t="n">
-        <v>17107353.6</v>
+        <v>17220403.2</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
@@ -602,34 +602,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000134408</v>
+        <v>8.035899999999999e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004042828</v>
+        <v>0.002775013</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00523355</v>
+        <v>0.003619874</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008033741</v>
+        <v>0.005812585</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005208051</v>
+        <v>0.004002655</v>
       </c>
       <c r="K3" t="n">
-        <v>17310515.2</v>
+        <v>17506304</v>
       </c>
       <c r="L3" t="n">
-        <v>17310515.2</v>
+        <v>17506304</v>
       </c>
       <c r="M3" t="n">
-        <v>17310515.2</v>
+        <v>17506304</v>
       </c>
       <c r="N3" t="n">
-        <v>17310515.2</v>
+        <v>17506304</v>
       </c>
       <c r="O3" t="n">
-        <v>17315840</v>
+        <v>17506304</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
@@ -660,34 +660,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000154817</v>
+        <v>9.6381e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004063988</v>
+        <v>0.002856874</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005093026</v>
+        <v>0.00375936</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008071076999999999</v>
+        <v>0.005916381</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005048132</v>
+        <v>0.003966284</v>
       </c>
       <c r="K4" t="n">
-        <v>17445273.6</v>
+        <v>17604608</v>
       </c>
       <c r="L4" t="n">
-        <v>17445273.6</v>
+        <v>17604608</v>
       </c>
       <c r="M4" t="n">
-        <v>17445273.6</v>
+        <v>17604608</v>
       </c>
       <c r="N4" t="n">
-        <v>17445273.6</v>
+        <v>17604608</v>
       </c>
       <c r="O4" t="n">
-        <v>17452236.8</v>
+        <v>17616896</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
@@ -718,34 +718,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000141025</v>
+        <v>9.6512e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003924322</v>
+        <v>0.002834105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005143011</v>
+        <v>0.003697598</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008434927</v>
+        <v>0.00584327</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005179238</v>
+        <v>0.003966546</v>
       </c>
       <c r="K5" t="n">
-        <v>17583923.2</v>
+        <v>17812684.8</v>
       </c>
       <c r="L5" t="n">
-        <v>17583923.2</v>
+        <v>17812684.8</v>
       </c>
       <c r="M5" t="n">
-        <v>17583923.2</v>
+        <v>17812684.8</v>
       </c>
       <c r="N5" t="n">
-        <v>17588633.6</v>
+        <v>17812684.8</v>
       </c>
       <c r="O5" t="n">
-        <v>17588633.6</v>
+        <v>17820262.4</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>
@@ -776,34 +776,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000141239</v>
+        <v>7.735499999999999e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004316747</v>
+        <v>0.002850211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005343878</v>
+        <v>0.003726447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008617496000000001</v>
+        <v>0.005947888</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005777788</v>
+        <v>0.004067922</v>
       </c>
       <c r="K6" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="L6" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="M6" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="N6" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="O6" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="P6" t="n">
         <v>72</v>
@@ -834,34 +834,34 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000119436</v>
+        <v>9.6858e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004106498</v>
+        <v>0.002793586</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005364227</v>
+        <v>0.003590322</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008485662999999999</v>
+        <v>0.005760169</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005445874</v>
+        <v>0.003859615</v>
       </c>
       <c r="K7" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="L7" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="M7" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="N7" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="O7" t="n">
-        <v>17600512</v>
+        <v>17903616</v>
       </c>
       <c r="P7" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -544,34 +544,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>8.2457e-05</v>
+        <v>7.726e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002719796</v>
+        <v>0.002690661</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003503323</v>
+        <v>0.003554368</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005656672</v>
+        <v>0.005585408</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003773141</v>
+        <v>0.00372684</v>
       </c>
       <c r="K2" t="n">
-        <v>17170432</v>
+        <v>17389772.8</v>
       </c>
       <c r="L2" t="n">
-        <v>17170432</v>
+        <v>17389772.8</v>
       </c>
       <c r="M2" t="n">
-        <v>17214259.2</v>
+        <v>17389772.8</v>
       </c>
       <c r="N2" t="n">
-        <v>17220403.2</v>
+        <v>17394483.2</v>
       </c>
       <c r="O2" t="n">
-        <v>17220403.2</v>
+        <v>17443225.6</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
@@ -602,34 +602,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>8.035899999999999e-05</v>
+        <v>8.2743e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002775013</v>
+        <v>0.002736139</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003619874</v>
+        <v>0.003537118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005812585</v>
+        <v>0.00569371</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004002655</v>
+        <v>0.003909457</v>
       </c>
       <c r="K3" t="n">
-        <v>17506304</v>
+        <v>17684889.6</v>
       </c>
       <c r="L3" t="n">
-        <v>17506304</v>
+        <v>17684889.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17506304</v>
+        <v>17684889.6</v>
       </c>
       <c r="N3" t="n">
-        <v>17506304</v>
+        <v>17689804.8</v>
       </c>
       <c r="O3" t="n">
-        <v>17506304</v>
+        <v>17689804.8</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
@@ -660,34 +660,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>9.6381e-05</v>
+        <v>8.134799999999999e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002856874</v>
+        <v>0.00264746</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00375936</v>
+        <v>0.003486979</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005916381</v>
+        <v>0.005538464</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003966284</v>
+        <v>0.003734243</v>
       </c>
       <c r="K4" t="n">
-        <v>17604608</v>
+        <v>17806131.2</v>
       </c>
       <c r="L4" t="n">
-        <v>17604608</v>
+        <v>17806131.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17604608</v>
+        <v>17806131.2</v>
       </c>
       <c r="N4" t="n">
-        <v>17604608</v>
+        <v>17806131.2</v>
       </c>
       <c r="O4" t="n">
-        <v>17616896</v>
+        <v>17810022.4</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
@@ -718,34 +718,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>9.6512e-05</v>
+        <v>8.2397e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002834105</v>
+        <v>0.002803338</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003697598</v>
+        <v>0.003653061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00584327</v>
+        <v>0.005755448</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003966546</v>
+        <v>0.003935385</v>
       </c>
       <c r="K5" t="n">
-        <v>17812684.8</v>
+        <v>17944371.2</v>
       </c>
       <c r="L5" t="n">
-        <v>17812684.8</v>
+        <v>17944371.2</v>
       </c>
       <c r="M5" t="n">
-        <v>17812684.8</v>
+        <v>17944371.2</v>
       </c>
       <c r="N5" t="n">
-        <v>17812684.8</v>
+        <v>17950105.6</v>
       </c>
       <c r="O5" t="n">
-        <v>17820262.4</v>
+        <v>17955840</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>
@@ -776,34 +776,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>7.735499999999999e-05</v>
+        <v>9.5654e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002850211</v>
+        <v>0.002653778</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003726447</v>
+        <v>0.003452969</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005947888</v>
+        <v>0.005539906</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004067922</v>
+        <v>0.003807044</v>
       </c>
       <c r="K6" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="L6" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="M6" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="N6" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="O6" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="P6" t="n">
         <v>72</v>
@@ -834,34 +834,34 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>9.6858e-05</v>
+        <v>7.695e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002793586</v>
+        <v>0.002703476</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003590322</v>
+        <v>0.003499424</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005760169</v>
+        <v>0.005711067</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003859615</v>
+        <v>0.003795373</v>
       </c>
       <c r="K7" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="L7" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="M7" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="N7" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="O7" t="n">
-        <v>17903616</v>
+        <v>18063360</v>
       </c>
       <c r="P7" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,15 +511,25 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>mpk (B)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>msk (B)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>ek_S (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>dk_R (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>C (B)</t>
         </is>
@@ -544,42 +554,48 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>7.726e-05</v>
+        <v>9.8133e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002690661</v>
+        <v>0.003048539</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003554368</v>
+        <v>0.003952515</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005585408</v>
+        <v>0.006429398</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00372684</v>
+        <v>0.004246819</v>
       </c>
       <c r="K2" t="n">
-        <v>17389772.8</v>
+        <v>17306419.2</v>
       </c>
       <c r="L2" t="n">
-        <v>17389772.8</v>
+        <v>17306419.2</v>
       </c>
       <c r="M2" t="n">
-        <v>17389772.8</v>
+        <v>17306419.2</v>
       </c>
       <c r="N2" t="n">
-        <v>17394483.2</v>
+        <v>17348812.8</v>
       </c>
       <c r="O2" t="n">
-        <v>17443225.6</v>
+        <v>17355366.4</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
       </c>
       <c r="Q2" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R2" t="n">
+        <v>72</v>
+      </c>
+      <c r="S2" t="n">
+        <v>64</v>
+      </c>
+      <c r="T2" t="n">
         <v>64</v>
       </c>
     </row>
@@ -602,42 +618,48 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>8.2743e-05</v>
+        <v>9.7823e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002736139</v>
+        <v>0.002831006</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003537118</v>
+        <v>0.003715694</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00569371</v>
+        <v>0.005874431</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003909457</v>
+        <v>0.003999197</v>
       </c>
       <c r="K3" t="n">
-        <v>17684889.6</v>
+        <v>17637580.8</v>
       </c>
       <c r="L3" t="n">
-        <v>17684889.6</v>
+        <v>17637580.8</v>
       </c>
       <c r="M3" t="n">
-        <v>17684889.6</v>
+        <v>17637580.8</v>
       </c>
       <c r="N3" t="n">
-        <v>17689804.8</v>
+        <v>17637580.8</v>
       </c>
       <c r="O3" t="n">
-        <v>17689804.8</v>
+        <v>17643929.6</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
       </c>
       <c r="Q3" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R3" t="n">
+        <v>72</v>
+      </c>
+      <c r="S3" t="n">
+        <v>64</v>
+      </c>
+      <c r="T3" t="n">
         <v>64</v>
       </c>
     </row>
@@ -660,42 +682,48 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>8.134799999999999e-05</v>
+        <v>9.423499999999999e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00264746</v>
+        <v>0.002836275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003486979</v>
+        <v>0.003669691</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005538464</v>
+        <v>0.005852032</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003734243</v>
+        <v>0.003925943</v>
       </c>
       <c r="K4" t="n">
-        <v>17806131.2</v>
+        <v>17775820.8</v>
       </c>
       <c r="L4" t="n">
-        <v>17806131.2</v>
+        <v>17775820.8</v>
       </c>
       <c r="M4" t="n">
-        <v>17806131.2</v>
+        <v>17775820.8</v>
       </c>
       <c r="N4" t="n">
-        <v>17806131.2</v>
+        <v>17780940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>17810022.4</v>
+        <v>17785651.2</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
       </c>
       <c r="Q4" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R4" t="n">
+        <v>72</v>
+      </c>
+      <c r="S4" t="n">
+        <v>64</v>
+      </c>
+      <c r="T4" t="n">
         <v>64</v>
       </c>
     </row>
@@ -718,42 +746,48 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>8.2397e-05</v>
+        <v>8.527e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002803338</v>
+        <v>0.002721393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003653061</v>
+        <v>0.003546536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005755448</v>
+        <v>0.005730808</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003935385</v>
+        <v>0.003872323</v>
       </c>
       <c r="K5" t="n">
-        <v>17944371.2</v>
+        <v>17898905.6</v>
       </c>
       <c r="L5" t="n">
-        <v>17944371.2</v>
+        <v>17898905.6</v>
       </c>
       <c r="M5" t="n">
-        <v>17944371.2</v>
+        <v>17898905.6</v>
       </c>
       <c r="N5" t="n">
-        <v>17950105.6</v>
+        <v>17898905.6</v>
       </c>
       <c r="O5" t="n">
-        <v>17955840</v>
+        <v>17906483.2</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>
       </c>
       <c r="Q5" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R5" t="n">
+        <v>72</v>
+      </c>
+      <c r="S5" t="n">
+        <v>64</v>
+      </c>
+      <c r="T5" t="n">
         <v>64</v>
       </c>
     </row>
@@ -776,42 +810,48 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>9.5654e-05</v>
+        <v>8.6451e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002653778</v>
+        <v>0.002765441</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003452969</v>
+        <v>0.003562617</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005539906</v>
+        <v>0.00573523</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003807044</v>
+        <v>0.003876197</v>
       </c>
       <c r="K6" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="L6" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="M6" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="N6" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="O6" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="P6" t="n">
         <v>72</v>
       </c>
       <c r="Q6" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R6" t="n">
+        <v>72</v>
+      </c>
+      <c r="S6" t="n">
+        <v>64</v>
+      </c>
+      <c r="T6" t="n">
         <v>64</v>
       </c>
     </row>
@@ -834,42 +874,48 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>7.695e-05</v>
+        <v>8.781e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002703476</v>
+        <v>0.002846682</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003499424</v>
+        <v>0.003735793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005711067</v>
+        <v>0.005892229</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003795373</v>
+        <v>0.003978956</v>
       </c>
       <c r="K7" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="L7" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="M7" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="N7" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="O7" t="n">
-        <v>18063360</v>
+        <v>18042880</v>
       </c>
       <c r="P7" t="n">
         <v>72</v>
       </c>
       <c r="Q7" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R7" t="n">
+        <v>72</v>
+      </c>
+      <c r="S7" t="n">
+        <v>64</v>
+      </c>
+      <c r="T7" t="n">
         <v>64</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -554,34 +554,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>9.8133e-05</v>
+        <v>0.001532304</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003048539</v>
+        <v>0.002513981</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003952515</v>
+        <v>0.003170753</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006429398</v>
+        <v>0.005031729</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004246819</v>
+        <v>0.003389204</v>
       </c>
       <c r="K2" t="n">
-        <v>17306419.2</v>
+        <v>17439744</v>
       </c>
       <c r="L2" t="n">
-        <v>17306419.2</v>
+        <v>17439744</v>
       </c>
       <c r="M2" t="n">
-        <v>17306419.2</v>
+        <v>17439744</v>
       </c>
       <c r="N2" t="n">
-        <v>17348812.8</v>
+        <v>17439744</v>
       </c>
       <c r="O2" t="n">
-        <v>17355366.4</v>
+        <v>17484800</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
@@ -618,34 +618,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>9.7823e-05</v>
+        <v>0.001592708</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002831006</v>
+        <v>0.002548897</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003715694</v>
+        <v>0.003298151</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005874431</v>
+        <v>0.005294049</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003999197</v>
+        <v>0.00363028</v>
       </c>
       <c r="K3" t="n">
-        <v>17637580.8</v>
+        <v>17642905.6</v>
       </c>
       <c r="L3" t="n">
-        <v>17637580.8</v>
+        <v>17642905.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17637580.8</v>
+        <v>17649254.4</v>
       </c>
       <c r="N3" t="n">
-        <v>17637580.8</v>
+        <v>17649254.4</v>
       </c>
       <c r="O3" t="n">
-        <v>17643929.6</v>
+        <v>17649664</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
@@ -682,34 +682,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>9.423499999999999e-05</v>
+        <v>0.001656115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002836275</v>
+        <v>0.002635479</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003669691</v>
+        <v>0.003436279</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005852032</v>
+        <v>0.00550909</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003925943</v>
+        <v>0.003719068</v>
       </c>
       <c r="K4" t="n">
-        <v>17775820.8</v>
+        <v>17779097.6</v>
       </c>
       <c r="L4" t="n">
-        <v>17775820.8</v>
+        <v>17779097.6</v>
       </c>
       <c r="M4" t="n">
-        <v>17775820.8</v>
+        <v>17779097.6</v>
       </c>
       <c r="N4" t="n">
-        <v>17780940.8</v>
+        <v>17779097.6</v>
       </c>
       <c r="O4" t="n">
-        <v>17785651.2</v>
+        <v>17784627.2</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
@@ -746,34 +746,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>8.527e-05</v>
+        <v>0.001764822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002721393</v>
+        <v>0.002755487</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003546536</v>
+        <v>0.003640604</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005730808</v>
+        <v>0.005786657</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003872323</v>
+        <v>0.003841829</v>
       </c>
       <c r="K5" t="n">
-        <v>17898905.6</v>
+        <v>17932492.8</v>
       </c>
       <c r="L5" t="n">
-        <v>17898905.6</v>
+        <v>17932492.8</v>
       </c>
       <c r="M5" t="n">
-        <v>17898905.6</v>
+        <v>17932492.8</v>
       </c>
       <c r="N5" t="n">
-        <v>17898905.6</v>
+        <v>17938636.8</v>
       </c>
       <c r="O5" t="n">
-        <v>17906483.2</v>
+        <v>17944576</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>
@@ -810,19 +810,19 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>8.6451e-05</v>
+        <v>0.001718354</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002765441</v>
+        <v>0.002789712</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003562617</v>
+        <v>0.003666961</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00573523</v>
+        <v>0.005908263</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003876197</v>
+        <v>0.003856993</v>
       </c>
       <c r="K6" t="n">
         <v>18042880</v>
@@ -874,19 +874,19 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>8.781e-05</v>
+        <v>0.001756215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002846682</v>
+        <v>0.00276041</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003735793</v>
+        <v>0.003554106</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005892229</v>
+        <v>0.005625093</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003978956</v>
+        <v>0.00382961</v>
       </c>
       <c r="K7" t="n">
         <v>18042880</v>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -554,34 +554,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001532304</v>
+        <v>0.001743578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002513981</v>
+        <v>0.002702884</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003170753</v>
+        <v>0.003571043</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005031729</v>
+        <v>0.006251452</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003389204</v>
+        <v>0.004080355</v>
       </c>
       <c r="K2" t="n">
-        <v>17439744</v>
+        <v>17179648</v>
       </c>
       <c r="L2" t="n">
-        <v>17439744</v>
+        <v>17179648</v>
       </c>
       <c r="M2" t="n">
-        <v>17439744</v>
+        <v>17223680</v>
       </c>
       <c r="N2" t="n">
-        <v>17439744</v>
+        <v>17229824</v>
       </c>
       <c r="O2" t="n">
-        <v>17484800</v>
+        <v>17229824</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
@@ -618,34 +618,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001592708</v>
+        <v>0.001834344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002548897</v>
+        <v>0.002777411</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003298151</v>
+        <v>0.003801547</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005294049</v>
+        <v>0.005930002</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00363028</v>
+        <v>0.003917373</v>
       </c>
       <c r="K3" t="n">
-        <v>17642905.6</v>
+        <v>17554636.8</v>
       </c>
       <c r="L3" t="n">
-        <v>17642905.6</v>
+        <v>17554636.8</v>
       </c>
       <c r="M3" t="n">
-        <v>17649254.4</v>
+        <v>17554636.8</v>
       </c>
       <c r="N3" t="n">
-        <v>17649254.4</v>
+        <v>17561395.2</v>
       </c>
       <c r="O3" t="n">
-        <v>17649664</v>
+        <v>17561395.2</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
@@ -682,34 +682,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001656115</v>
+        <v>0.001880375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002635479</v>
+        <v>0.003024293</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003436279</v>
+        <v>0.003857795</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00550909</v>
+        <v>0.005914374</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003719068</v>
+        <v>0.003926823</v>
       </c>
       <c r="K4" t="n">
-        <v>17779097.6</v>
+        <v>17713561.6</v>
       </c>
       <c r="L4" t="n">
-        <v>17779097.6</v>
+        <v>17713561.6</v>
       </c>
       <c r="M4" t="n">
-        <v>17779097.6</v>
+        <v>17713561.6</v>
       </c>
       <c r="N4" t="n">
-        <v>17779097.6</v>
+        <v>17713561.6</v>
       </c>
       <c r="O4" t="n">
-        <v>17784627.2</v>
+        <v>17720115.2</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
@@ -746,34 +746,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001764822</v>
+        <v>0.001821464</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002755487</v>
+        <v>0.002883466</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003640604</v>
+        <v>0.003698159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005786657</v>
+        <v>0.005865421</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003841829</v>
+        <v>0.004279296</v>
       </c>
       <c r="K5" t="n">
-        <v>17932492.8</v>
+        <v>17843609.6</v>
       </c>
       <c r="L5" t="n">
-        <v>17932492.8</v>
+        <v>17843609.6</v>
       </c>
       <c r="M5" t="n">
-        <v>17932492.8</v>
+        <v>17843609.6</v>
       </c>
       <c r="N5" t="n">
-        <v>17938636.8</v>
+        <v>17851392</v>
       </c>
       <c r="O5" t="n">
-        <v>17944576</v>
+        <v>17851392</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>
@@ -810,34 +810,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001718354</v>
+        <v>0.001931036</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002789712</v>
+        <v>0.002934622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003666961</v>
+        <v>0.003558451</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005908263</v>
+        <v>0.005772132</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003856993</v>
+        <v>0.003894456</v>
       </c>
       <c r="K6" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="L6" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="M6" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="N6" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="O6" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="P6" t="n">
         <v>72</v>
@@ -874,34 +874,34 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001756215</v>
+        <v>0.001872385</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00276041</v>
+        <v>0.002869467</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003554106</v>
+        <v>0.00368298</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005625093</v>
+        <v>0.005915884</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00382961</v>
+        <v>0.004021581</v>
       </c>
       <c r="K7" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="L7" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="M7" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="N7" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="O7" t="n">
-        <v>18042880</v>
+        <v>17899520</v>
       </c>
       <c r="P7" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,40 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>elementOfZR (B)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG1G2 (B)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfGT (B)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>mpk (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>msk (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ek_S (B)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>dk_R (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>C (B)</t>
         </is>
@@ -554,49 +569,58 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001743578</v>
+        <v>0.001614313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002702884</v>
+        <v>0.002477197</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003571043</v>
+        <v>0.003394512</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006251452</v>
+        <v>0.00513228</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004080355</v>
+        <v>0.003359996</v>
       </c>
       <c r="K2" t="n">
-        <v>17179648</v>
+        <v>17444044.8</v>
       </c>
       <c r="L2" t="n">
-        <v>17179648</v>
+        <v>17444044.8</v>
       </c>
       <c r="M2" t="n">
-        <v>17223680</v>
+        <v>17444044.8</v>
       </c>
       <c r="N2" t="n">
-        <v>17229824</v>
+        <v>17449369.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17229824</v>
+        <v>17500364.8</v>
       </c>
       <c r="P2" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="R2" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="S2" t="n">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="T2" t="n">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="U2" t="n">
+        <v>90</v>
+      </c>
+      <c r="V2" t="n">
+        <v>270</v>
+      </c>
+      <c r="W2" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="3">
@@ -618,49 +642,58 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001834344</v>
+        <v>0.001631473</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002777411</v>
+        <v>0.002542612</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003801547</v>
+        <v>0.003486167</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005930002</v>
+        <v>0.005179754</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003917373</v>
+        <v>0.003592842</v>
       </c>
       <c r="K3" t="n">
-        <v>17554636.8</v>
+        <v>17737523.2</v>
       </c>
       <c r="L3" t="n">
-        <v>17554636.8</v>
+        <v>17737523.2</v>
       </c>
       <c r="M3" t="n">
-        <v>17554636.8</v>
+        <v>17737523.2</v>
       </c>
       <c r="N3" t="n">
-        <v>17561395.2</v>
+        <v>17737523.2</v>
       </c>
       <c r="O3" t="n">
-        <v>17561395.2</v>
+        <v>17743052.8</v>
       </c>
       <c r="P3" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="R3" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="S3" t="n">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="T3" t="n">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="U3" t="n">
+        <v>90</v>
+      </c>
+      <c r="V3" t="n">
+        <v>270</v>
+      </c>
+      <c r="W3" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -682,49 +715,58 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001880375</v>
+        <v>0.001680621</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003024293</v>
+        <v>0.002580322</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003857795</v>
+        <v>0.003296638</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005914374</v>
+        <v>0.005322683</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003926823</v>
+        <v>0.003525834</v>
       </c>
       <c r="K4" t="n">
-        <v>17713561.6</v>
+        <v>17883955.2</v>
       </c>
       <c r="L4" t="n">
-        <v>17713561.6</v>
+        <v>17883955.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17713561.6</v>
+        <v>17883955.2</v>
       </c>
       <c r="N4" t="n">
-        <v>17713561.6</v>
+        <v>17883955.2</v>
       </c>
       <c r="O4" t="n">
-        <v>17720115.2</v>
+        <v>17889280</v>
       </c>
       <c r="P4" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="R4" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="S4" t="n">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="T4" t="n">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="U4" t="n">
+        <v>90</v>
+      </c>
+      <c r="V4" t="n">
+        <v>270</v>
+      </c>
+      <c r="W4" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="5">
@@ -746,49 +788,58 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001821464</v>
+        <v>0.00161275</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002883466</v>
+        <v>0.002582326</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003698159</v>
+        <v>0.003415589</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005865421</v>
+        <v>0.005355181</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004279296</v>
+        <v>0.00370739</v>
       </c>
       <c r="K5" t="n">
-        <v>17843609.6</v>
+        <v>17915904</v>
       </c>
       <c r="L5" t="n">
-        <v>17843609.6</v>
+        <v>17915904</v>
       </c>
       <c r="M5" t="n">
-        <v>17843609.6</v>
+        <v>17915904</v>
       </c>
       <c r="N5" t="n">
-        <v>17851392</v>
+        <v>17915904</v>
       </c>
       <c r="O5" t="n">
-        <v>17851392</v>
+        <v>17915904</v>
       </c>
       <c r="P5" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="R5" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="S5" t="n">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="T5" t="n">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="U5" t="n">
+        <v>90</v>
+      </c>
+      <c r="V5" t="n">
+        <v>270</v>
+      </c>
+      <c r="W5" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="6">
@@ -810,49 +861,58 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001931036</v>
+        <v>0.001676275</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002934622</v>
+        <v>0.002659557</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003558451</v>
+        <v>0.003541548</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005772132</v>
+        <v>0.00557289</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003894456</v>
+        <v>0.00360116</v>
       </c>
       <c r="K6" t="n">
-        <v>17899520</v>
+        <v>17915904</v>
       </c>
       <c r="L6" t="n">
-        <v>17899520</v>
+        <v>17915904</v>
       </c>
       <c r="M6" t="n">
-        <v>17899520</v>
+        <v>17915904</v>
       </c>
       <c r="N6" t="n">
-        <v>17899520</v>
+        <v>17915904</v>
       </c>
       <c r="O6" t="n">
-        <v>17899520</v>
+        <v>17915904</v>
       </c>
       <c r="P6" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="R6" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="S6" t="n">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="T6" t="n">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="U6" t="n">
+        <v>90</v>
+      </c>
+      <c r="V6" t="n">
+        <v>270</v>
+      </c>
+      <c r="W6" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="7">
@@ -874,49 +934,58 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001872385</v>
+        <v>0.001655591</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002869467</v>
+        <v>0.002580889</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00368298</v>
+        <v>0.003383299</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005915884</v>
+        <v>0.005725555</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004021581</v>
+        <v>0.003620074</v>
       </c>
       <c r="K7" t="n">
-        <v>17899520</v>
+        <v>17930240</v>
       </c>
       <c r="L7" t="n">
-        <v>17899520</v>
+        <v>17930240</v>
       </c>
       <c r="M7" t="n">
-        <v>17899520</v>
+        <v>17930240</v>
       </c>
       <c r="N7" t="n">
-        <v>17899520</v>
+        <v>17930240</v>
       </c>
       <c r="O7" t="n">
-        <v>17899520</v>
+        <v>17937408</v>
       </c>
       <c r="P7" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="R7" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="S7" t="n">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="T7" t="n">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="U7" t="n">
+        <v>90</v>
+      </c>
+      <c r="V7" t="n">
+        <v>270</v>
+      </c>
+      <c r="W7" t="n">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -569,34 +569,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001614313</v>
+        <v>0.003430635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002477197</v>
+        <v>0.005140952</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003394512</v>
+        <v>0.006241805</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00513228</v>
+        <v>0.010468998</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003359996</v>
+        <v>0.007342847</v>
       </c>
       <c r="K2" t="n">
-        <v>17444044.8</v>
+        <v>19848601.6</v>
       </c>
       <c r="L2" t="n">
-        <v>17444044.8</v>
+        <v>19848601.6</v>
       </c>
       <c r="M2" t="n">
-        <v>17444044.8</v>
+        <v>19848601.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17449369.6</v>
+        <v>19848601.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17500364.8</v>
+        <v>19861094.4</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -642,34 +642,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001631473</v>
+        <v>0.003991065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002542612</v>
+        <v>0.006258334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003486167</v>
+        <v>0.007686598</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005179754</v>
+        <v>0.011245082</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003592842</v>
+        <v>0.007175799</v>
       </c>
       <c r="K3" t="n">
-        <v>17737523.2</v>
+        <v>19960217.6</v>
       </c>
       <c r="L3" t="n">
-        <v>17737523.2</v>
+        <v>19960217.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17737523.2</v>
+        <v>19960217.6</v>
       </c>
       <c r="N3" t="n">
-        <v>17737523.2</v>
+        <v>19960217.6</v>
       </c>
       <c r="O3" t="n">
-        <v>17743052.8</v>
+        <v>19965542.4</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -715,34 +715,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001680621</v>
+        <v>0.002739348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002580322</v>
+        <v>0.004215523</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003296638</v>
+        <v>0.005791027</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005322683</v>
+        <v>0.00937024</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003525834</v>
+        <v>0.006277837</v>
       </c>
       <c r="K4" t="n">
-        <v>17883955.2</v>
+        <v>20082892.8</v>
       </c>
       <c r="L4" t="n">
-        <v>17883955.2</v>
+        <v>20082892.8</v>
       </c>
       <c r="M4" t="n">
-        <v>17883955.2</v>
+        <v>20082892.8</v>
       </c>
       <c r="N4" t="n">
-        <v>17883955.2</v>
+        <v>20088832</v>
       </c>
       <c r="O4" t="n">
-        <v>17889280</v>
+        <v>20088832</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -788,34 +788,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00161275</v>
+        <v>0.003102485</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002582326</v>
+        <v>0.004542371</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003415589</v>
+        <v>0.006141015</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005355181</v>
+        <v>0.009837636</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00370739</v>
+        <v>0.006106751</v>
       </c>
       <c r="K5" t="n">
-        <v>17915904</v>
+        <v>20231372.8</v>
       </c>
       <c r="L5" t="n">
-        <v>17915904</v>
+        <v>20231372.8</v>
       </c>
       <c r="M5" t="n">
-        <v>17915904</v>
+        <v>20231372.8</v>
       </c>
       <c r="N5" t="n">
-        <v>17915904</v>
+        <v>20240588.8</v>
       </c>
       <c r="O5" t="n">
-        <v>17915904</v>
+        <v>20240588.8</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -861,34 +861,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001676275</v>
+        <v>0.003264363</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002659557</v>
+        <v>0.005102544</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003541548</v>
+        <v>0.006418752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00557289</v>
+        <v>0.010098586</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00360116</v>
+        <v>0.007285995</v>
       </c>
       <c r="K6" t="n">
-        <v>17915904</v>
+        <v>20336640</v>
       </c>
       <c r="L6" t="n">
-        <v>17915904</v>
+        <v>20336640</v>
       </c>
       <c r="M6" t="n">
-        <v>17915904</v>
+        <v>20336640</v>
       </c>
       <c r="N6" t="n">
-        <v>17915904</v>
+        <v>20336640</v>
       </c>
       <c r="O6" t="n">
-        <v>17915904</v>
+        <v>20336640</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -934,34 +934,34 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001655591</v>
+        <v>0.003897</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002580889</v>
+        <v>0.005996797</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003383299</v>
+        <v>0.007670748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005725555</v>
+        <v>0.011454114</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003620074</v>
+        <v>0.007723636</v>
       </c>
       <c r="K7" t="n">
-        <v>17930240</v>
+        <v>20336640</v>
       </c>
       <c r="L7" t="n">
-        <v>17930240</v>
+        <v>20336640</v>
       </c>
       <c r="M7" t="n">
-        <v>17930240</v>
+        <v>20336640</v>
       </c>
       <c r="N7" t="n">
-        <v>17930240</v>
+        <v>20336640</v>
       </c>
       <c r="O7" t="n">
-        <v>17937408</v>
+        <v>20336640</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,65 +486,40 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Setup (B)</t>
+          <t>elementOfZR (B)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>SKGen (B)</t>
+          <t>elementOfG1G2 (B)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>RKGen (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Enc (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Dec (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>elementOfZR (B)</t>
+          <t>ek_S (B)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG1G2 (B)</t>
+          <t>dk_R (B)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfGT (B)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>mpk (B)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>msk (B)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ek_S (B)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>dk_R (B)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>C (B)</t>
         </is>
@@ -569,57 +544,42 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003430635</v>
+        <v>0.001684107</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005140952</v>
+        <v>0.002567337</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006241805</v>
+        <v>0.003338965</v>
       </c>
       <c r="I2" t="n">
-        <v>0.010468998</v>
+        <v>0.005391313</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007342847</v>
+        <v>0.003594953</v>
       </c>
       <c r="K2" t="n">
-        <v>19848601.6</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>19848601.6</v>
+        <v>90</v>
       </c>
       <c r="M2" t="n">
-        <v>19848601.6</v>
+        <v>174</v>
       </c>
       <c r="N2" t="n">
-        <v>19848601.6</v>
+        <v>212</v>
       </c>
       <c r="O2" t="n">
-        <v>19861094.4</v>
+        <v>60</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="R2" t="n">
-        <v>174</v>
-      </c>
-      <c r="S2" t="n">
-        <v>212</v>
-      </c>
-      <c r="T2" t="n">
-        <v>60</v>
-      </c>
-      <c r="U2" t="n">
-        <v>90</v>
-      </c>
-      <c r="V2" t="n">
-        <v>270</v>
-      </c>
-      <c r="W2" t="n">
         <v>196</v>
       </c>
     </row>
@@ -642,57 +602,42 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003991065</v>
+        <v>0.001772944</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006258334</v>
+        <v>0.002692246</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007686598</v>
+        <v>0.003466397</v>
       </c>
       <c r="I3" t="n">
-        <v>0.011245082</v>
+        <v>0.005571402</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007175799</v>
+        <v>0.003870309</v>
       </c>
       <c r="K3" t="n">
-        <v>19960217.6</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
-        <v>19960217.6</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>19960217.6</v>
+        <v>174</v>
       </c>
       <c r="N3" t="n">
-        <v>19960217.6</v>
+        <v>220</v>
       </c>
       <c r="O3" t="n">
-        <v>19965542.4</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="R3" t="n">
-        <v>174</v>
-      </c>
-      <c r="S3" t="n">
-        <v>220</v>
-      </c>
-      <c r="T3" t="n">
-        <v>60</v>
-      </c>
-      <c r="U3" t="n">
-        <v>90</v>
-      </c>
-      <c r="V3" t="n">
-        <v>270</v>
-      </c>
-      <c r="W3" t="n">
         <v>200</v>
       </c>
     </row>
@@ -715,57 +660,42 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002739348</v>
+        <v>0.001726484</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004215523</v>
+        <v>0.002650708</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005791027</v>
+        <v>0.003460666</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00937024</v>
+        <v>0.005477866</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006277837</v>
+        <v>0.003762856</v>
       </c>
       <c r="K4" t="n">
-        <v>20082892.8</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>20082892.8</v>
+        <v>90</v>
       </c>
       <c r="M4" t="n">
-        <v>20082892.8</v>
+        <v>174</v>
       </c>
       <c r="N4" t="n">
-        <v>20088832</v>
+        <v>236</v>
       </c>
       <c r="O4" t="n">
-        <v>20088832</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="R4" t="n">
-        <v>174</v>
-      </c>
-      <c r="S4" t="n">
-        <v>236</v>
-      </c>
-      <c r="T4" t="n">
-        <v>60</v>
-      </c>
-      <c r="U4" t="n">
-        <v>90</v>
-      </c>
-      <c r="V4" t="n">
-        <v>270</v>
-      </c>
-      <c r="W4" t="n">
         <v>208</v>
       </c>
     </row>
@@ -788,57 +718,42 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003102485</v>
+        <v>0.00173123</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004542371</v>
+        <v>0.00265091</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006141015</v>
+        <v>0.003450488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009837636</v>
+        <v>0.005506474</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006106751</v>
+        <v>0.003692604</v>
       </c>
       <c r="K5" t="n">
-        <v>20231372.8</v>
+        <v>30</v>
       </c>
       <c r="L5" t="n">
-        <v>20231372.8</v>
+        <v>90</v>
       </c>
       <c r="M5" t="n">
-        <v>20231372.8</v>
+        <v>174</v>
       </c>
       <c r="N5" t="n">
-        <v>20240588.8</v>
+        <v>244</v>
       </c>
       <c r="O5" t="n">
-        <v>20240588.8</v>
+        <v>60</v>
       </c>
       <c r="P5" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="R5" t="n">
-        <v>174</v>
-      </c>
-      <c r="S5" t="n">
-        <v>244</v>
-      </c>
-      <c r="T5" t="n">
-        <v>60</v>
-      </c>
-      <c r="U5" t="n">
-        <v>90</v>
-      </c>
-      <c r="V5" t="n">
-        <v>270</v>
-      </c>
-      <c r="W5" t="n">
         <v>212</v>
       </c>
     </row>
@@ -861,57 +776,42 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003264363</v>
+        <v>0.00164936</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005102544</v>
+        <v>0.002598475</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006418752</v>
+        <v>0.003450602</v>
       </c>
       <c r="I6" t="n">
-        <v>0.010098586</v>
+        <v>0.005373799</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007285995</v>
+        <v>0.00370413</v>
       </c>
       <c r="K6" t="n">
-        <v>20336640</v>
+        <v>30</v>
       </c>
       <c r="L6" t="n">
-        <v>20336640</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>20336640</v>
+        <v>174</v>
       </c>
       <c r="N6" t="n">
-        <v>20336640</v>
+        <v>276</v>
       </c>
       <c r="O6" t="n">
-        <v>20336640</v>
+        <v>60</v>
       </c>
       <c r="P6" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="R6" t="n">
-        <v>174</v>
-      </c>
-      <c r="S6" t="n">
-        <v>276</v>
-      </c>
-      <c r="T6" t="n">
-        <v>60</v>
-      </c>
-      <c r="U6" t="n">
-        <v>90</v>
-      </c>
-      <c r="V6" t="n">
-        <v>270</v>
-      </c>
-      <c r="W6" t="n">
         <v>228</v>
       </c>
     </row>
@@ -934,57 +834,42 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003897</v>
+        <v>0.001740767</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005996797</v>
+        <v>0.002723123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007670748</v>
+        <v>0.003555463</v>
       </c>
       <c r="I7" t="n">
-        <v>0.011454114</v>
+        <v>0.005576757</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007723636</v>
+        <v>0.003710921</v>
       </c>
       <c r="K7" t="n">
-        <v>20336640</v>
+        <v>30</v>
       </c>
       <c r="L7" t="n">
-        <v>20336640</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>20336640</v>
+        <v>174</v>
       </c>
       <c r="N7" t="n">
-        <v>20336640</v>
+        <v>308</v>
       </c>
       <c r="O7" t="n">
-        <v>20336640</v>
+        <v>60</v>
       </c>
       <c r="P7" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="R7" t="n">
-        <v>174</v>
-      </c>
-      <c r="S7" t="n">
-        <v>308</v>
-      </c>
-      <c r="T7" t="n">
-        <v>60</v>
-      </c>
-      <c r="U7" t="n">
-        <v>90</v>
-      </c>
-      <c r="V7" t="n">
-        <v>270</v>
-      </c>
-      <c r="W7" t="n">
         <v>244</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -544,19 +544,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001684107</v>
+        <v>0.000125316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002567337</v>
+        <v>0.002525298</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003338965</v>
+        <v>0.00324509</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005391313</v>
+        <v>0.002366008</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003594953</v>
+        <v>0.002335871</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -602,19 +602,19 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001772944</v>
+        <v>0.00012765</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002692246</v>
+        <v>0.002571461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003466397</v>
+        <v>0.003271543</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005571402</v>
+        <v>0.00242145</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003870309</v>
+        <v>0.002466957</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -660,19 +660,19 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001726484</v>
+        <v>0.000104113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002650708</v>
+        <v>0.002410163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003460666</v>
+        <v>0.003128306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005477866</v>
+        <v>0.002336475</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003762856</v>
+        <v>0.002209327</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -718,19 +718,19 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00173123</v>
+        <v>9.4199e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00265091</v>
+        <v>0.002348572</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003450488</v>
+        <v>0.003062914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005506474</v>
+        <v>0.002191108</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003692604</v>
+        <v>0.002133139</v>
       </c>
       <c r="K5" t="n">
         <v>30</v>
@@ -776,19 +776,19 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00164936</v>
+        <v>8.6289e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002598475</v>
+        <v>0.002335116</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003450602</v>
+        <v>0.003009846</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005373799</v>
+        <v>0.002178169</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00370413</v>
+        <v>0.002124544</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -834,19 +834,19 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001740767</v>
+        <v>8.2452e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002723123</v>
+        <v>0.002293684</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003555463</v>
+        <v>0.002973846</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005576757</v>
+        <v>0.002150842</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003710921</v>
+        <v>0.002114921</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -544,19 +544,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000125316</v>
+        <v>7.8237e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002525298</v>
+        <v>0.002216912</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00324509</v>
+        <v>0.002933142</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002366008</v>
+        <v>0.002150261</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002335871</v>
+        <v>0.002078711</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -602,19 +602,19 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00012765</v>
+        <v>8.4107e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002571461</v>
+        <v>0.002278138</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003271543</v>
+        <v>0.002966733</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00242145</v>
+        <v>0.002185871</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002466957</v>
+        <v>0.002131918</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -660,19 +660,19 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000104113</v>
+        <v>8.263300000000001e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002410163</v>
+        <v>0.002307766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003128306</v>
+        <v>0.00302349</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002336475</v>
+        <v>0.002162385</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002209327</v>
+        <v>0.002119629</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -718,19 +718,19 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>9.4199e-05</v>
+        <v>8.2505e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002348572</v>
+        <v>0.002280652</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003062914</v>
+        <v>0.002944203</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002191108</v>
+        <v>0.002126206</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002133139</v>
+        <v>0.002075706</v>
       </c>
       <c r="K5" t="n">
         <v>30</v>
@@ -776,19 +776,19 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>8.6289e-05</v>
+        <v>9.1944e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002335116</v>
+        <v>0.002498076</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003009846</v>
+        <v>0.002985885</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002178169</v>
+        <v>0.002099751</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002124544</v>
+        <v>0.002165852</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -834,19 +834,19 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>8.2452e-05</v>
+        <v>7.8998e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002293684</v>
+        <v>0.002275638</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002973846</v>
+        <v>0.00293896</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002150842</v>
+        <v>0.002136075</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002114921</v>
+        <v>0.00209893</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeIBME.xlsx
+++ b/SchemeIBMETR/SchemeIBME.xlsx
@@ -535,28 +535,28 @@
         <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>7.8237e-05</v>
+        <v>7.512e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002216912</v>
+        <v>0.00208412</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002933142</v>
+        <v>0.002706199</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002150261</v>
+        <v>0.001951024</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002078711</v>
+        <v>0.001912889</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -593,28 +593,28 @@
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>8.4107e-05</v>
+        <v>7.4885e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002278138</v>
+        <v>0.00210222</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002966733</v>
+        <v>0.002732261</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002185871</v>
+        <v>0.001976401</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002131918</v>
+        <v>0.001932517</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -651,28 +651,28 @@
         <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>8.263300000000001e-05</v>
+        <v>7.334e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002307766</v>
+        <v>0.002114378</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00302349</v>
+        <v>0.002736026</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002162385</v>
+        <v>0.001976934</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002119629</v>
+        <v>0.00193731</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -709,28 +709,28 @@
         <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>8.2505e-05</v>
+        <v>8.031599999999999e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002280652</v>
+        <v>0.00222076</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002944203</v>
+        <v>0.002895452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002126206</v>
+        <v>0.002099862</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002075706</v>
+        <v>0.002048616</v>
       </c>
       <c r="K5" t="n">
         <v>30</v>
@@ -767,28 +767,28 @@
         <v>384</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>9.1944e-05</v>
+        <v>7.8192e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002498076</v>
+        <v>0.002188253</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002985885</v>
+        <v>0.002857225</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002099751</v>
+        <v>0.002093755</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002165852</v>
+        <v>0.002018004</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -825,28 +825,28 @@
         <v>512</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>7.8998e-05</v>
+        <v>7.8419e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002275638</v>
+        <v>0.002146664</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00293896</v>
+        <v>0.002811459</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002136075</v>
+        <v>0.002034905</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00209893</v>
+        <v>0.001997095</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>
